--- a/klassegr/klassegrenser_ASPT.xlsx
+++ b/klassegr/klassegrenser_ASPT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NINA\NatInd\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81566E2A-558B-46F2-9428-5AEAB8BA1ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D21AE-A112-4276-82D1-733C572DDDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/klassegr/klassegrenser_ASPT.xlsx
+++ b/klassegr/klassegrenser_ASPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\ecRxiv_vann\indicators\NO_WXXX_999\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D21AE-A112-4276-82D1-733C572DDDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF8BABE-8CD3-41F6-9681-D350459E364C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,31 +41,31 @@
     <t>typ</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>SD_nedre</t>
-  </si>
-  <si>
-    <t>SD_D</t>
-  </si>
-  <si>
-    <t>D_M</t>
-  </si>
-  <si>
-    <t>M_G</t>
-  </si>
-  <si>
-    <t>G_SG</t>
-  </si>
-  <si>
-    <t>SG_øvre</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>pess</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X40</t>
+  </si>
+  <si>
+    <t>X60</t>
+  </si>
+  <si>
+    <t>X80</t>
+  </si>
+  <si>
+    <t>X100</t>
+  </si>
+  <si>
+    <t>opt</t>
   </si>
 </sst>
 </file>
@@ -128,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,33 +437,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
